--- a/Costa Rica v2 Data.xlsx
+++ b/Costa Rica v2 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\UNDP\CR_case_study\CR_ELSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C90F04-60CE-4119-ADC0-C5150C1ACC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB68318-D1CF-4876-9D40-4077B6C7E389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="1605" windowWidth="21615" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1374,10 +1374,10 @@
   <dimension ref="A1:AC1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2384,18 +2384,10 @@
       <c r="F18" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="26">
-        <v>1</v>
-      </c>
-      <c r="H18" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="J18" s="26">
-        <v>0</v>
-      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="27" t="s">
         <v>157</v>
       </c>
